--- a/projects/project-3/assignment/src/data/ccot-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,749 +487,1310 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>definition: A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000114</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unix Temporal Instant</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000184</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Axial Rotation Period</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>definition: A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Unix Temporal Instant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Unix Temporal Instant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>definition: A Temporal Instant as specified by the number of Seconds that have elapsed since the specified Epoch Time as described by an implementation of Unix Time.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000184</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Axial Rotation Period</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000184</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Axial Rotation Period</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>definition: A Temporal Interval that is equal to the length of time required for a spinning Object to complete one rotation around its Axis of Rotation.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000227</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Julian Year</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000674</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000227</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Julian Year</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>comment: A Julian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.25 Julian Days. Julian Years are typically indicated by prefixing a capital 'J' in front of the Year number, e.g. J2000.0 or J2018.</t>
+          <t>comment: This is a defined class.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000259</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Calendar Month</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>definition: A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>definition: A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000425</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gregorian Year</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000674</t>
+          <t>definition: A Temporal Interval that is based on the approximate length of time required for a Natural Satellite to complete one cycle of its rotational motion around its Primary Body.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000425</t>
+          <t>https://www.commoncoreontologies.org/ont00000227</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gregorian Year</t>
+          <t>Julian Year</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>comment: A Gregorian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.2425 Gregorian Days. The Gregorian Year is based upon the vernal equinox year. Unless otherwise stated, instances of Calendar Year are assumed to be instances of Gregorian Year since the Gregorian Calendar is the most widely used civil Calendar System.</t>
+          <t>https://www.commoncoreontologies.org/ont00000674</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000435</t>
+          <t>https://www.commoncoreontologies.org/ont00000227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gregorian Day</t>
+          <t>Julian Year</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000921</t>
+          <t>comment: A Julian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.25 Julian Days. Julian Years are typically indicated by prefixing a capital 'J' in front of the Year number, e.g. J2000.0 or J2018.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000435</t>
+          <t>https://www.commoncoreontologies.org/ont00000227</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gregorian Day</t>
+          <t>Julian Year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>comment: A Gregorian Day is twenty-four Hours in duration.</t>
+          <t>definition: A Calendar Year in the Julian Calendar.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000465</t>
+          <t>https://www.commoncoreontologies.org/ont00000259</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modified Julian Date</t>
+          <t>Calendar Month</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>https://www.commoncoreontologies.org/ont00000259</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Calendar Month</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>definition: A Month that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Multi-Month Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Multi-Month Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>comment: This is a defined class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Multi-Month Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>definition: A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Julian Date</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Julian Date</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>definition: A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000425</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gregorian Year</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000674</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000425</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gregorian Year</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>comment: A Gregorian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.2425 Gregorian Days. The Gregorian Year is based upon the vernal equinox year. Unless otherwise stated, instances of Calendar Year are assumed to be instances of Gregorian Year since the Gregorian Calendar is the most widely used civil Calendar System.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000425</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gregorian Year</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>definition: A Calendar Year in the Gregorian Calendar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000435</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gregorian Day</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000921</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000435</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gregorian Day</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>comment: A Gregorian Day is twenty-four Hours in duration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000435</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gregorian Day</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>definition: A Calendar Day in the Gregorian Calendar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>https://www.commoncoreontologies.org/ont00000465</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Modified Julian Date</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000465</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Modified Julian Date</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>comment: A Day begins at midnight GMT within the Modified Julian Date reference system. The Modified Julian Date (MJD) is related to the Julian Date (JD) by the formula:
 MJD = JD - 2400000.5</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000498</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Julian Day</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000921</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000498</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Julian Day</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>comment: A Julian Day begins at noon Universal Time and is twenty-four Hours in duration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000550</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000674</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Calendar Year</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000699</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Multi-Week Temporal Interval</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Multi-Week Temporal Interval</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>comment: This is a defined class.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000921</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Calendar Day</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Second</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Second</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>comment: The Second is used as the basic SI unit of time.</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001023</t>
+          <t>https://www.commoncoreontologies.org/ont00000465</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Calendar Week</t>
+          <t>Modified Julian Date</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>definition: A Time of Day as specified according to the Julian Calendar using the Modified Julian Date epoch.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000498</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Julian Day</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>https://www.commoncoreontologies.org/ont00000921</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001088</t>
+          <t>https://www.commoncoreontologies.org/ont00000498</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Decade</t>
+          <t>Julian Day</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>comment: A Julian Day begins at noon Universal Time and is twenty-four Hours in duration.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001110</t>
+          <t>https://www.commoncoreontologies.org/ont00000498</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Julian Day</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>definition: A Calendar Day in the Julian Calendar.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001116</t>
+          <t>https://www.commoncoreontologies.org/ont00000550</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Reference Time</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000550</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun dawns (approximately 6:00am) and reaches its apex (approximately 12:00pm).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>definition: A Temporal Interval that is equal to seven consecutive Days.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000674</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Calendar Year</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001204</t>
+          <t>https://www.commoncoreontologies.org/ont00000674</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Calendar Year</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>definition: A Year that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Year.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000699</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Afternoon</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>https://www.commoncoreontologies.org/ont00000699</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun is at its apex (approximately 12:00pm) and when it sets (approximately 6:00pm).</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Multi-Week Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Multi-Week Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>comment: This is a defined class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Multi-Week Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>definition: A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000921</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Calendar Day</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000921</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Calendar Day</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>definition: A Day that begins and ends concurrently with the Seconds specified by a Calendar System to be the first and last Seconds of the Day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>comment: The Second is used as the basic SI unit of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Calendar Week</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Calendar Week</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>definition: A Week that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001088</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Decade</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001088</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Decade</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that is equal to a period of ten consecutive Years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001110</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001110</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun sets (approximately 6:00pm) and when people typically retire to sleep (approximately 9:00pm).</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001116</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Reference Time</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001116</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Reference Time</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Instant specified as the origin for which other Temporal Regions are measured or identified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Multi-Second Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Multi-Second Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>comment: This is a defined class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Multi-Second Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>definition: A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Multi-Minute Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Multi-Minute Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>comment: This is a defined class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Multi-Minute Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>definition: A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001204</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001204</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>definition: A Temporal Interval that consists of the temporal regions between when people typically retire to sleep (approximately 9:00pm) and when the sun dawns (approximately 6:00am).</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Multi-Year Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>comment: This is a defined class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Multi-Year Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>definition: A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccot-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-axioms.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>Definition: A Temporal Instant as specified by the number of Seconds that have elapsed since the specified Epoch Time as described by an implementation of Unix Time.</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>definition: A Temporal Instant as specified by the number of Seconds that have elapsed since the specified Epoch Time as described by an implementation of Unix Time.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to the length of time required for a spinning Object to complete one rotation around its Axis of Rotation.</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to the length of time required for a spinning Object to complete one rotation around its Axis of Rotation.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>Definition: A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>definition: A Temporal Instant that is part of a Day.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is based on the approximate length of time required for a Natural Satellite to complete one cycle of its rotational motion around its Primary Body.</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is based on the approximate length of time required for a Natural Satellite to complete one cycle of its rotational motion around its Primary Body.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000674</t>
+          <t>Comment: A Julian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.25 Julian Days. Julian Years are typically indicated by prefixing a capital 'J' in front of the Year number, e.g. J2000.0 or J2018.</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>comment: A Julian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.25 Julian Days. Julian Years are typically indicated by prefixing a capital 'J' in front of the Year number, e.g. J2000.0 or J2018.</t>
+          <t>Definition: A Calendar Year in the Julian Calendar.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>definition: A Calendar Year in the Julian Calendar.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000674</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>Definition: A Month that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Month.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>definition: A Month that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Month.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>Definition: A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>definition: A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000674</t>
+          <t>Comment: A Gregorian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.2425 Gregorian Days. The Gregorian Year is based upon the vernal equinox year. Unless otherwise stated, instances of Calendar Year are assumed to be instances of Gregorian Year since the Gregorian Calendar is the most widely used civil Calendar System.</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>comment: A Gregorian Year begins concurrently with January 1, ends concurrently with December 31, and has an average duration of exactly 365.2425 Gregorian Days. The Gregorian Year is based upon the vernal equinox year. Unless otherwise stated, instances of Calendar Year are assumed to be instances of Gregorian Year since the Gregorian Calendar is the most widely used civil Calendar System.</t>
+          <t>Definition: A Calendar Year in the Gregorian Calendar.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>definition: A Calendar Year in the Gregorian Calendar.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000674</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000921</t>
+          <t>Comment: A Gregorian Day is twenty-four Hours in duration.</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>comment: A Gregorian Day is twenty-four Hours in duration.</t>
+          <t>Definition: A Calendar Day in the Gregorian Calendar.</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>definition: A Calendar Day in the Gregorian Calendar.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000921</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,8 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>Comment: A Day begins at midnight GMT within the Modified Julian Date reference system. The Modified Julian Date (MJD) is related to the Julian Date (JD) by the formula:
+MJD = JD - 2400000.5</t>
         </is>
       </c>
     </row>
@@ -1024,8 +1025,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>comment: A Day begins at midnight GMT within the Modified Julian Date reference system. The Modified Julian Date (MJD) is related to the Julian Date (JD) by the formula:
-MJD = JD - 2400000.5</t>
+          <t>Definition: A Time of Day as specified according to the Julian Calendar using the Modified Julian Date epoch.</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>definition: A Time of Day as specified according to the Julian Calendar using the Modified Julian Date epoch.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000921</t>
+          <t>Comment: A Julian Day begins at noon Universal Time and is twenty-four Hours in duration.</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>comment: A Julian Day begins at noon Universal Time and is twenty-four Hours in duration.</t>
+          <t>Definition: A Calendar Day in the Julian Calendar.</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>definition: A Calendar Day in the Julian Calendar.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000921</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that consists of the temporal regions between when the sun dawns (approximately 6:00am) and reaches its apex (approximately 12:00pm).</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun dawns (approximately 6:00am) and reaches its apex (approximately 12:00pm).</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to seven consecutive Days.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to seven consecutive Days.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>Definition: A Year that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Year.</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>definition: A Year that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Year.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that consists of the temporal regions between when the sun is at its apex (approximately 12:00pm) and when it sets (approximately 6:00pm).</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun is at its apex (approximately 12:00pm) and when it sets (approximately 6:00pm).</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>Definition: A Day that begins and ends concurrently with the Seconds specified by a Calendar System to be the first and last Seconds of the Day.</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>definition: A Day that begins and ends concurrently with the Seconds specified by a Calendar System to be the first and last Seconds of the Day.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Comment: The Second is used as the basic SI unit of time.</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>comment: The Second is used as the basic SI unit of time.</t>
+          <t>Definition: A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>Definition: A Week that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Week.</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>definition: A Week that begins and ends concurrently with the Days specified by a Calendar System to be the first and last Days of the Week.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to sixty consecutive Minutes.</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that is equal to a period of ten consecutive Years.</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that is equal to a period of ten consecutive Years.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that consists of the temporal regions between when the sun sets (approximately 6:00pm) and when people typically retire to sleep (approximately 9:00pm).</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that consists of the temporal regions between when the sun sets (approximately 6:00pm) and when people typically retire to sleep (approximately 9:00pm).</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>Definition: A Temporal Instant specified as the origin for which other Temporal Regions are measured or identified.</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>definition: A Temporal Instant specified as the origin for which other Temporal Regions are measured or identified.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>Definition: A Temporal Interval that consists of the temporal regions between when people typically retire to sleep (approximately 9:00pm) and when the sun dawns (approximately 6:00am).</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>definition: A Temporal Interval that consists of the temporal regions between when people typically retire to sleep (approximately 9:00pm) and when the sun dawns (approximately 6:00am).</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Comment: This is a defined class.</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>comment: This is a defined class.</t>
+          <t>Definition: A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>definition: A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
